--- a/emisc_index.xlsx
+++ b/emisc_index.xlsx
@@ -9,39 +9,21 @@
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t>#001.Excel单元格内的时间日期只保留年份</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#002.填充不连续的Excel空白单元格</t>
-  </si>
-  <si>
     <t>标题及链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#003.如何在Excel数值後面添加单位</t>
-  </si>
-  <si>
-    <t>#004.按条件统计数值，函数SUMIF和SUMIFS</t>
-  </si>
-  <si>
-    <t>#005.理解Excel中的实质值和显示值</t>
-  </si>
-  <si>
-    <t>#006.如何批量将一个单元格内多数据的值加起来</t>
-  </si>
-  <si>
     <t>关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单元格格式,字符串拼接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,11 +76,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#007.如何把数值弄得“整齐”一点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>涉及函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001.Excel单元格内的时间日期只保留年份</t>
+  </si>
+  <si>
+    <t>002.填充不连续的Excel空白单元格</t>
+  </si>
+  <si>
+    <t>003.如何在Excel数值後面添加单位</t>
+  </si>
+  <si>
+    <t>004.按条件统计数值，函数SUMIF和SUMIFS</t>
+  </si>
+  <si>
+    <t>005.理解Excel中的实质值和显示值</t>
+  </si>
+  <si>
+    <t>006.如何批量将一个单元格内多数据的值加起来</t>
+  </si>
+  <si>
+    <t>007.如何把数值弄得“整齐”一点</t>
+  </si>
+  <si>
+    <t>008.如何搜索*号，转义符~</t>
+  </si>
+  <si>
+    <t>010.如何将破折号两边的数据分为两列</t>
+  </si>
+  <si>
+    <t>009.相对智能的数据提取：快速填充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,14 +144,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,20 +188,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -490,11 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,130 +515,201 @@
     <col min="4" max="4" width="58.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>B1&amp;"|"&amp;C1&amp;"|"&amp;D1</f>
+        <v>标题及链接|关键字|涉及函数</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="str">
+        <f>"["&amp;B2&amp;"][#"&amp;LEFT(B2,3)&amp;"]|"&amp;C2&amp;"|"&amp;D2</f>
+        <v>[001.Excel单元格内的时间日期只保留年份][#001]|单元格格式,日期|TEXT</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f t="shared" ref="E3:E11" si="0">"["&amp;B3&amp;"][#"&amp;LEFT(B3,3)&amp;"]|"&amp;C3&amp;"|"&amp;D3</f>
+        <v>[002.填充不连续的Excel空白单元格][#002]|搜索替换|ISBLANK,IF</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[003.如何在Excel数值後面添加单位][#003]|单元格格式,字符串拼接|&amp;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[004.按条件统计数值，函数SUMIF和SUMIFS][#004]|筛选,通配符|SUMIFS,SUMIF</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[005.理解Excel中的实质值和显示值][#005]|单元格格式|TEXT</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[006.如何批量将一个单元格内多数据的值加起来][#006]|名称,xlsm|SUBSTITUTE,EVALUATE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[007.如何把数值弄得“整齐”一点][#007]|四舍五入|ROUND,ROUNDUP,ROUNDDOWN,MROUND,CEILING,FLOOR,IFERROR</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[008.如何搜索*号，转义符~][#008]|搜索替换|</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[009.相对智能的数据提取：快速填充][#009]|填充|</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>[010.如何将破折号两边的数据分为两列][#010]|分列|</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzIxNDAxMTE2NQ==&amp;mid=2653745590&amp;idx=1&amp;sn=ddb0710d448bd05355e5d30c538b8d74&amp;chksm=8c764dc4bb01c4d2aef0f4a3565466830554009b74ba827091bf944d85da578afb442fd906f7&amp;token=791176284&amp;lang=zh_CN&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="B2" r:id="rId2" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzIxNDAxMTE2NQ==&amp;mid=2653745581&amp;idx=1&amp;sn=e3b9b7ba1481d3d9540198e5f471da03&amp;chksm=8c764ddfbb01c4c9bdfb5a05dbb8acce493c496fa4a4fb74c8c9a76219d61696c0de9d8634dd&amp;token=664703961&amp;lang=zh_CN&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="B4" r:id="rId3" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzIxNDAxMTE2NQ==&amp;mid=2653745598&amp;idx=1&amp;sn=a91e946decb871a284129307cb2534b8&amp;chksm=8c764dccbb01c4da4e0dcd22291dbdb6677a038006856e6fb847bf972ead5213fdb34fd904ce&amp;token=672150632&amp;lang=zh_CN&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="B5" r:id="rId4" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzIxNDAxMTE2NQ==&amp;mid=2653745608&amp;idx=1&amp;sn=ae5c674e1bb6a10fb4eb085787b66d9d&amp;chksm=8c764dbabb01c4ac9ef2a931aa9805a118fed09e365e473777a7244f24a06d253cedd6048055&amp;token=87490460&amp;lang=zh_CN&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="B6" r:id="rId5" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzIxNDAxMTE2NQ==&amp;mid=2653745614&amp;idx=1&amp;sn=a42014ab0fc63bae28452d53204989ca&amp;chksm=8c764dbcbb01c4aa2d35eb5c3b5ff468957ae5c04956c91d648ea145882e6d8843c40cd8cab1&amp;token=822674102&amp;lang=zh_CN&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="B7" r:id="rId6" location="wechat_redirect" display="https://mp.weixin.qq.com/s?__biz=MzIxNDAxMTE2NQ==&amp;mid=2653745624&amp;idx=1&amp;sn=b94a894b174f6de73326e13787bc37ad&amp;chksm=8c764daabb01c4bc0894c7b09e95160ca141f2b2bd0cbdddd660e59ef4d40cc70a2f9d6071cf&amp;token=2016806233&amp;lang=zh_CN&amp;scene=21 - wechat_redirect"/>
-    <hyperlink ref="B8" r:id="rId7" location="rd"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>